--- a/用例数据/深港/投票/T日/测试结果.xlsx
+++ b/用例数据/深港/投票/T日/测试结果.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="exchangemessage" sheetId="1" r:id="rId1"/>
+    <sheet name="votelistinfo" sheetId="2" r:id="rId2"/>
+    <sheet name="votestkinfo" sheetId="3" r:id="rId3"/>
+    <sheet name="votemettinginfo" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3021" uniqueCount="297">
   <si>
     <t>OCCURTIME</t>
   </si>
@@ -817,6 +820,99 @@
   </si>
   <si>
     <t>100183</t>
+  </si>
+  <si>
+    <t>BASICEXCHID</t>
+  </si>
+  <si>
+    <t>MEETINGSEQ</t>
+  </si>
+  <si>
+    <t>VOTEID</t>
+  </si>
+  <si>
+    <t>VOTEINFO</t>
+  </si>
+  <si>
+    <t>VOTETYPE</t>
+  </si>
+  <si>
+    <t>VOTELEIJINO</t>
+  </si>
+  <si>
+    <t>VOTERELATION</t>
+  </si>
+  <si>
+    <t>REFCODELIST</t>
+  </si>
+  <si>
+    <t>PERMITFLAG</t>
+  </si>
+  <si>
+    <t>GROUPID</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>SZ_GGT</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>STKNAME</t>
+  </si>
+  <si>
+    <t>LASTTRADEDATE</t>
+  </si>
+  <si>
+    <t>REGISTRATIONDATE</t>
+  </si>
+  <si>
+    <t>STYPE</t>
+  </si>
+  <si>
+    <t>香港宽频</t>
+  </si>
+  <si>
+    <t>20221101000000</t>
+  </si>
+  <si>
+    <t>H股</t>
+  </si>
+  <si>
+    <t>九龙仓集团</t>
+  </si>
+  <si>
+    <t>中国光大银行</t>
+  </si>
+  <si>
+    <t>中信证券</t>
+  </si>
+  <si>
+    <t>MEETINGDESC</t>
+  </si>
+  <si>
+    <t>MEETINGTYPE</t>
+  </si>
+  <si>
+    <t>MEETINGDATEBEGIN</t>
+  </si>
+  <si>
+    <t>MEETINGDATEEND</t>
+  </si>
+  <si>
+    <t>COMPANYCODE</t>
+  </si>
+  <si>
+    <t>COMPANYINFO</t>
+  </si>
+  <si>
+    <t>20230131000000</t>
+  </si>
+  <si>
+    <t>20230228000000</t>
   </si>
 </sst>
 </file>
@@ -1144,13 +1240,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="M79" sqref="M79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1269,7 +1365,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -1352,7 +1448,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -1435,7 +1531,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1518,7 +1614,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -1601,7 +1697,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -1684,7 +1780,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -1761,7 +1857,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -1838,7 +1934,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -1915,7 +2011,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1992,7 +2088,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -2069,7 +2165,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -2146,7 +2242,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -2223,7 +2319,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -2300,7 +2396,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -2377,7 +2473,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -2454,7 +2550,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -2531,7 +2627,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -2608,7 +2704,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -2685,7 +2781,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -2762,7 +2858,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -2839,7 +2935,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -2916,7 +3012,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -2993,7 +3089,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -3070,7 +3166,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -3147,7 +3243,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -3224,7 +3320,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
@@ -3301,7 +3397,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -3378,7 +3474,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -3455,7 +3551,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -3532,7 +3628,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
@@ -3609,7 +3705,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -3686,7 +3782,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
@@ -3763,7 +3859,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -3840,7 +3936,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
@@ -3917,7 +4013,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -3994,7 +4090,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -4071,7 +4167,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -4148,7 +4244,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -4225,7 +4321,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -4302,7 +4398,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -4379,7 +4475,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -4456,7 +4552,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
@@ -4533,7 +4629,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
@@ -4610,7 +4706,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>40</v>
       </c>
@@ -4687,7 +4783,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>40</v>
       </c>
@@ -4764,7 +4860,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>40</v>
       </c>
@@ -4841,7 +4937,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>40</v>
       </c>
@@ -4918,7 +5014,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>40</v>
       </c>
@@ -4995,7 +5091,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>40</v>
       </c>
@@ -5072,7 +5168,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>40</v>
       </c>
@@ -5149,7 +5245,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>40</v>
       </c>
@@ -5226,7 +5322,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>40</v>
       </c>
@@ -5303,7 +5399,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>40</v>
       </c>
@@ -5380,7 +5476,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>40</v>
       </c>
@@ -5457,7 +5553,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>40</v>
       </c>
@@ -5534,7 +5630,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>40</v>
       </c>
@@ -5611,7 +5707,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>40</v>
       </c>
@@ -5688,7 +5784,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>40</v>
       </c>
@@ -5765,7 +5861,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>40</v>
       </c>
@@ -5842,7 +5938,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>40</v>
       </c>
@@ -5919,7 +6015,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>40</v>
       </c>
@@ -5996,7 +6092,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>40</v>
       </c>
@@ -6073,7 +6169,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>40</v>
       </c>
@@ -6150,7 +6246,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>40</v>
       </c>
@@ -6227,7 +6323,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>40</v>
       </c>
@@ -6304,7 +6400,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>40</v>
       </c>
@@ -6381,7 +6477,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>40</v>
       </c>
@@ -6458,7 +6554,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>40</v>
       </c>
@@ -6535,7 +6631,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>40</v>
       </c>
@@ -6612,7 +6708,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>40</v>
       </c>
@@ -6689,7 +6785,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>40</v>
       </c>
@@ -6766,7 +6862,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>40</v>
       </c>
@@ -6843,7 +6939,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>40</v>
       </c>
@@ -6920,7 +7016,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>40</v>
       </c>
@@ -6997,7 +7093,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>40</v>
       </c>
@@ -7074,7 +7170,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>40</v>
       </c>
@@ -7151,7 +7247,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>40</v>
       </c>
@@ -7228,7 +7324,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>40</v>
       </c>
@@ -7305,7 +7401,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>40</v>
       </c>
@@ -7382,7 +7478,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>40</v>
       </c>
@@ -7459,7 +7555,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>40</v>
       </c>
@@ -7536,7 +7632,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="83" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>40</v>
       </c>
@@ -7613,7 +7709,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="84" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>40</v>
       </c>
@@ -7690,7 +7786,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="85" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>40</v>
       </c>
@@ -7767,7 +7863,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>40</v>
       </c>
@@ -7844,7 +7940,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="87" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>40</v>
       </c>
@@ -7921,7 +8017,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>40</v>
       </c>
@@ -7998,7 +8094,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="89" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>40</v>
       </c>
@@ -8075,7 +8171,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>40</v>
       </c>
@@ -8152,7 +8248,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="91" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>40</v>
       </c>
@@ -8229,7 +8325,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="92" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>40</v>
       </c>
@@ -8306,7 +8402,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="93" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>40</v>
       </c>
@@ -8383,7 +8479,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="94" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>40</v>
       </c>
@@ -8460,7 +8556,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="95" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>40</v>
       </c>
@@ -8537,7 +8633,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="96" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>40</v>
       </c>
@@ -8614,7 +8710,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="97" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>40</v>
       </c>
@@ -8691,331 +8787,2424 @@
         <v>59</v>
       </c>
     </row>
-    <row r="98" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="394" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="395" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="396" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="397" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="398" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="399" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="400" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="401" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="402" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="403" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="404" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="405" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="406" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="407" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="408" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="409" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="410" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="411" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="412" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="413" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="414" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="415" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="416" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="417" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="418" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="419" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="394" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="395" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="396" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="397" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="398" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="399" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="400" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="401" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="402" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="403" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="404" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="405" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="406" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="407" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="408" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="409" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="410" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="411" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="412" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="413" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="414" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="415" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="416" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="417" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="418" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="419" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1310</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1310</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="1">
+        <v>5</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1310</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="1">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1310</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1310</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="1">
+        <v>7</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1310</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="1">
+        <v>4</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1310</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="1">
+        <v>4</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F62" s="1">
+        <v>2</v>
+      </c>
+      <c r="H62" s="1">
+        <v>4</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J62" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F63" s="1">
+        <v>3</v>
+      </c>
+      <c r="H63" s="1">
+        <v>4</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F64" s="1">
+        <v>3</v>
+      </c>
+      <c r="H64" s="1">
+        <v>4</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" s="1">
+        <v>5</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F65" s="1">
+        <v>2</v>
+      </c>
+      <c r="H65" s="1">
+        <v>4</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J65" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F66" s="1">
+        <v>3</v>
+      </c>
+      <c r="H66" s="1">
+        <v>4</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>